--- a/Desarrollo/BiblioTech/documentacion/BT-PP.xlsx
+++ b/Desarrollo/BiblioTech/documentacion/BT-PP.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOLA MUNDO\Desktop\FISI 2021-1\GESTION\GRUPAL\pClonar\CGNSTECH\Desarrollo\BiblioTech\documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNMSM\Ciclo 9\gestion configuracion\proyecto\BiblioTech\Desarrollo\BiblioTech\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AEF618-DC6E-4038-977F-F81492ADE8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10935" windowHeight="5370"/>
+    <workbookView xWindow="345" yWindow="1605" windowWidth="20145" windowHeight="9315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.Casos de Prueba " sheetId="2" r:id="rId1"/>
@@ -35,12 +36,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>Detalle de Caso de Prueba</t>
   </si>
@@ -238,11 +239,14 @@
   <si>
     <t>Escriba Pino Mónica</t>
   </si>
+  <si>
+    <t>Jimmy Kochi Nagamine</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -601,7 +605,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -813,14 +817,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J927"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -884,6 +888,9 @@
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
       </c>
       <c r="E6" s="18"/>
     </row>
@@ -1305,7 +1312,7 @@
     <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="B9:D19"/>
+  <autoFilter ref="B9:D19" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="4">
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
@@ -1318,13 +1325,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Nomenclatura!$B$4:$B$9</xm:f>
           </x14:formula1>
           <xm:sqref>H10:H19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Nomenclatura!$F$4:$F$10</xm:f>
           </x14:formula1>
@@ -1337,7 +1344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1362,7 +1369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z943"/>
   <sheetViews>
     <sheetView workbookViewId="0">
